--- a/data/Heery_2017.xlsx
+++ b/data/Heery_2017.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migueltenorio/Documents/GitHub/CIT-SimBiology-Toolbox/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C1A5675-47E8-A542-AEB9-9CBCBD93CA51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712652F5-B772-014C-8A3B-1CCCEFF742B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="760" windowWidth="16020" windowHeight="16540" activeTab="1" xr2:uid="{0F507B3E-ECAE-C140-965E-86969F6C2F56}"/>
+    <workbookView xWindow="4020" yWindow="720" windowWidth="22840" windowHeight="16540" activeTab="1" xr2:uid="{0F507B3E-ECAE-C140-965E-86969F6C2F56}"/>
   </bookViews>
   <sheets>
     <sheet name="Avelumab" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="14">
   <si>
     <t>Time[hour(s)]</t>
   </si>
@@ -53,11 +53,38 @@
   <si>
     <t>Name</t>
   </si>
+  <si>
+    <t>1_mgkg</t>
+  </si>
+  <si>
+    <t>Avelumab_1mgkg</t>
+  </si>
+  <si>
+    <t>3_mgkg</t>
+  </si>
+  <si>
+    <t>Avelumab_3mgkg</t>
+  </si>
+  <si>
+    <t>10_mgkg</t>
+  </si>
+  <si>
+    <t>Avelumab_10mgkg</t>
+  </si>
+  <si>
+    <t>20_mgkg</t>
+  </si>
+  <si>
+    <t>Avelumab_20mgkg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -87,9 +114,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A3C775-0FD8-C147-863E-FDDE61C38977}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -430,6 +458,1046 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <f>Avelumab_Original!A2</f>
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>Avelumab_Original!B2</f>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>Avelumab_Original!C2</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>Avelumab_Original!D2</f>
+        <v>1</v>
+      </c>
+      <c r="E2" t="str">
+        <f>Avelumab_Original!E2</f>
+        <v>1_mgkg</v>
+      </c>
+      <c r="F2" t="str">
+        <f>Avelumab_Original!F2</f>
+        <v>Avelumab_1mgkg</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f>Avelumab_Original!A3</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <f>Avelumab_Original!B3/($D$2*77*1000)*100</f>
+        <v>2.34274025974026E-2</v>
+      </c>
+      <c r="C3" s="2">
+        <f>Avelumab_Original!C3/($D$2*77*1000)*100</f>
+        <v>3.5442857142857129E-3</v>
+      </c>
+      <c r="D3">
+        <f>Avelumab_Original!D3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" t="str">
+        <f>Avelumab_Original!E3</f>
+        <v>1_mgkg</v>
+      </c>
+      <c r="F3" t="str">
+        <f>Avelumab_Original!F3</f>
+        <v>Avelumab_1mgkg</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f>Avelumab_Original!A4</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <f>Avelumab_Original!B4/($D$2*77*1000)*100</f>
+        <v>2.1833896103896105E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <f>Avelumab_Original!C4/($D$2*77*1000)*100</f>
+        <v>5.1377922077922066E-3</v>
+      </c>
+      <c r="D4">
+        <f>Avelumab_Original!D4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" t="str">
+        <f>Avelumab_Original!E4</f>
+        <v>1_mgkg</v>
+      </c>
+      <c r="F4" t="str">
+        <f>Avelumab_Original!F4</f>
+        <v>Avelumab_1mgkg</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f>Avelumab_Original!A5</f>
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <f>Avelumab_Original!B5/($D$2*77*1000)*100</f>
+        <v>1.9644545454545456E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <f>Avelumab_Original!C5/($D$2*77*1000)*100</f>
+        <v>4.6225974025974025E-3</v>
+      </c>
+      <c r="D5">
+        <f>Avelumab_Original!D5</f>
+        <v>0</v>
+      </c>
+      <c r="E5" t="str">
+        <f>Avelumab_Original!E5</f>
+        <v>1_mgkg</v>
+      </c>
+      <c r="F5" t="str">
+        <f>Avelumab_Original!F5</f>
+        <v>Avelumab_1mgkg</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f>Avelumab_Original!A6</f>
+        <v>12</v>
+      </c>
+      <c r="B6" s="2">
+        <f>Avelumab_Original!B6/($D$2*77*1000)*100</f>
+        <v>1.7544805194805193E-2</v>
+      </c>
+      <c r="C6" s="2">
+        <f>Avelumab_Original!C6/($D$2*77*1000)*100</f>
+        <v>6.722337662337664E-3</v>
+      </c>
+      <c r="D6">
+        <f>Avelumab_Original!D6</f>
+        <v>0</v>
+      </c>
+      <c r="E6" t="str">
+        <f>Avelumab_Original!E6</f>
+        <v>1_mgkg</v>
+      </c>
+      <c r="F6" t="str">
+        <f>Avelumab_Original!F6</f>
+        <v>Avelumab_1mgkg</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f>Avelumab_Original!A7</f>
+        <v>24</v>
+      </c>
+      <c r="B7" s="2">
+        <f>Avelumab_Original!B7/($D$2*77*1000)*100</f>
+        <v>1.4820779220779224E-2</v>
+      </c>
+      <c r="C7" s="2">
+        <f>Avelumab_Original!C7/($D$2*77*1000)*100</f>
+        <v>3.8128571428571413E-3</v>
+      </c>
+      <c r="D7">
+        <f>Avelumab_Original!D7</f>
+        <v>0</v>
+      </c>
+      <c r="E7" t="str">
+        <f>Avelumab_Original!E7</f>
+        <v>1_mgkg</v>
+      </c>
+      <c r="F7" t="str">
+        <f>Avelumab_Original!F7</f>
+        <v>Avelumab_1mgkg</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f>Avelumab_Original!A8</f>
+        <v>36</v>
+      </c>
+      <c r="B8" s="2">
+        <f>Avelumab_Original!B8/($D$2*77*1000)*100</f>
+        <v>1.221064935064935E-2</v>
+      </c>
+      <c r="C8" s="2">
+        <f>Avelumab_Original!C8/($D$2*77*1000)*100</f>
+        <v>2.8733766233766216E-3</v>
+      </c>
+      <c r="D8">
+        <f>Avelumab_Original!D8</f>
+        <v>0</v>
+      </c>
+      <c r="E8" t="str">
+        <f>Avelumab_Original!E8</f>
+        <v>1_mgkg</v>
+      </c>
+      <c r="F8" t="str">
+        <f>Avelumab_Original!F8</f>
+        <v>Avelumab_1mgkg</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f>Avelumab_Original!A9</f>
+        <v>48</v>
+      </c>
+      <c r="B9" s="2">
+        <f>Avelumab_Original!B9/($D$2*77*1000)*100</f>
+        <v>1.0794545454545454E-2</v>
+      </c>
+      <c r="C9" s="2">
+        <f>Avelumab_Original!C9/($D$2*77*1000)*100</f>
+        <v>3.0181818181818179E-3</v>
+      </c>
+      <c r="D9">
+        <f>Avelumab_Original!D9</f>
+        <v>0</v>
+      </c>
+      <c r="E9" t="str">
+        <f>Avelumab_Original!E9</f>
+        <v>1_mgkg</v>
+      </c>
+      <c r="F9" t="str">
+        <f>Avelumab_Original!F9</f>
+        <v>Avelumab_1mgkg</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f>Avelumab_Original!A10</f>
+        <v>168</v>
+      </c>
+      <c r="B10" s="2">
+        <f>Avelumab_Original!B10/($D$2*77*1000)*100</f>
+        <v>3.0376623376623378E-3</v>
+      </c>
+      <c r="C10" s="2">
+        <f>Avelumab_Original!C10/($D$2*77*1000)*100</f>
+        <v>1.6801298701298699E-3</v>
+      </c>
+      <c r="D10">
+        <f>Avelumab_Original!D10</f>
+        <v>0</v>
+      </c>
+      <c r="E10" t="str">
+        <f>Avelumab_Original!E10</f>
+        <v>1_mgkg</v>
+      </c>
+      <c r="F10" t="str">
+        <f>Avelumab_Original!F10</f>
+        <v>Avelumab_1mgkg</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f>Avelumab_Original!A11</f>
+        <v>336</v>
+      </c>
+      <c r="B11" s="2">
+        <f>Avelumab_Original!B11/($D$2*77*1000)*100</f>
+        <v>2.8688311688311688E-4</v>
+      </c>
+      <c r="C11" s="2">
+        <f>Avelumab_Original!C11/($D$2*77*1000)*100</f>
+        <v>3.1948051948051925E-5</v>
+      </c>
+      <c r="D11">
+        <f>Avelumab_Original!D11</f>
+        <v>0</v>
+      </c>
+      <c r="E11" t="str">
+        <f>Avelumab_Original!E11</f>
+        <v>1_mgkg</v>
+      </c>
+      <c r="F11" t="str">
+        <f>Avelumab_Original!F11</f>
+        <v>Avelumab_1mgkg</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f>Avelumab_Original!A12</f>
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <f>Avelumab_Original!B12</f>
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f>Avelumab_Original!C12</f>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f>Avelumab_Original!D12</f>
+        <v>3</v>
+      </c>
+      <c r="E12" t="str">
+        <f>Avelumab_Original!E12</f>
+        <v>3_mgkg</v>
+      </c>
+      <c r="F12" t="str">
+        <f>Avelumab_Original!F12</f>
+        <v>Avelumab_3mgkg</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f>Avelumab_Original!A13</f>
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <f>Avelumab_Original!B13/($D$12*77*1000)*100</f>
+        <v>2.8745367965367963E-2</v>
+      </c>
+      <c r="C13" s="2">
+        <f>Avelumab_Original!C13/($D$12*77*1000)*100</f>
+        <v>1.1422900432900437E-2</v>
+      </c>
+      <c r="D13">
+        <f>Avelumab_Original!D13</f>
+        <v>0</v>
+      </c>
+      <c r="E13" t="str">
+        <f>Avelumab_Original!E13</f>
+        <v>3_mgkg</v>
+      </c>
+      <c r="F13" t="str">
+        <f>Avelumab_Original!F13</f>
+        <v>Avelumab_3mgkg</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f>Avelumab_Original!A14</f>
+        <v>3</v>
+      </c>
+      <c r="B14" s="2">
+        <f>Avelumab_Original!B14/($D$12*77*1000)*100</f>
+        <v>3.4280692640692639E-2</v>
+      </c>
+      <c r="C14" s="2">
+        <f>Avelumab_Original!C14/($D$12*77*1000)*100</f>
+        <v>8.8191774891774877E-3</v>
+      </c>
+      <c r="D14">
+        <f>Avelumab_Original!D14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" t="str">
+        <f>Avelumab_Original!E14</f>
+        <v>3_mgkg</v>
+      </c>
+      <c r="F14" t="str">
+        <f>Avelumab_Original!F14</f>
+        <v>Avelumab_3mgkg</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f>Avelumab_Original!A15</f>
+        <v>6</v>
+      </c>
+      <c r="B15" s="2">
+        <f>Avelumab_Original!B15/($D$12*77*1000)*100</f>
+        <v>2.824354978354978E-2</v>
+      </c>
+      <c r="C15" s="2">
+        <f>Avelumab_Original!C15/($D$12*77*1000)*100</f>
+        <v>6.0371428571428598E-3</v>
+      </c>
+      <c r="D15">
+        <f>Avelumab_Original!D15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" t="str">
+        <f>Avelumab_Original!E15</f>
+        <v>3_mgkg</v>
+      </c>
+      <c r="F15" t="str">
+        <f>Avelumab_Original!F15</f>
+        <v>Avelumab_3mgkg</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f>Avelumab_Original!A16</f>
+        <v>12</v>
+      </c>
+      <c r="B16" s="2">
+        <f>Avelumab_Original!B16/($D$12*77*1000)*100</f>
+        <v>2.4103809523809524E-2</v>
+      </c>
+      <c r="C16" s="2">
+        <f>Avelumab_Original!C16/($D$12*77*1000)*100</f>
+        <v>8.4127705627705593E-3</v>
+      </c>
+      <c r="D16">
+        <f>Avelumab_Original!D16</f>
+        <v>0</v>
+      </c>
+      <c r="E16" t="str">
+        <f>Avelumab_Original!E16</f>
+        <v>3_mgkg</v>
+      </c>
+      <c r="F16" t="str">
+        <f>Avelumab_Original!F16</f>
+        <v>Avelumab_3mgkg</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f>Avelumab_Original!A17</f>
+        <v>24</v>
+      </c>
+      <c r="B17" s="2">
+        <f>Avelumab_Original!B17/($D$12*77*1000)*100</f>
+        <v>2.0211774891774892E-2</v>
+      </c>
+      <c r="C17" s="2">
+        <f>Avelumab_Original!C17/($D$12*77*1000)*100</f>
+        <v>5.6512121212121203E-3</v>
+      </c>
+      <c r="D17">
+        <f>Avelumab_Original!D17</f>
+        <v>0</v>
+      </c>
+      <c r="E17" t="str">
+        <f>Avelumab_Original!E17</f>
+        <v>3_mgkg</v>
+      </c>
+      <c r="F17" t="str">
+        <f>Avelumab_Original!F17</f>
+        <v>Avelumab_3mgkg</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f>Avelumab_Original!A18</f>
+        <v>36</v>
+      </c>
+      <c r="B18" s="2">
+        <f>Avelumab_Original!B18/($D$12*77*1000)*100</f>
+        <v>1.6075974025974025E-2</v>
+      </c>
+      <c r="C18" s="2">
+        <f>Avelumab_Original!C18/($D$12*77*1000)*100</f>
+        <v>4.8603463203463221E-3</v>
+      </c>
+      <c r="D18">
+        <f>Avelumab_Original!D18</f>
+        <v>0</v>
+      </c>
+      <c r="E18" t="str">
+        <f>Avelumab_Original!E18</f>
+        <v>3_mgkg</v>
+      </c>
+      <c r="F18" t="str">
+        <f>Avelumab_Original!F18</f>
+        <v>Avelumab_3mgkg</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f>Avelumab_Original!A19</f>
+        <v>48</v>
+      </c>
+      <c r="B19" s="2">
+        <f>Avelumab_Original!B19/($D$12*77*1000)*100</f>
+        <v>1.5795367965367964E-2</v>
+      </c>
+      <c r="C19" s="2">
+        <f>Avelumab_Original!C19/($D$12*77*1000)*100</f>
+        <v>4.7754978354978377E-3</v>
+      </c>
+      <c r="D19">
+        <f>Avelumab_Original!D19</f>
+        <v>0</v>
+      </c>
+      <c r="E19" t="str">
+        <f>Avelumab_Original!E19</f>
+        <v>3_mgkg</v>
+      </c>
+      <c r="F19" t="str">
+        <f>Avelumab_Original!F19</f>
+        <v>Avelumab_3mgkg</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f>Avelumab_Original!A20</f>
+        <v>168</v>
+      </c>
+      <c r="B20" s="2">
+        <f>Avelumab_Original!B20/($D$12*77*1000)*100</f>
+        <v>5.6876623376623378E-3</v>
+      </c>
+      <c r="C20" s="2">
+        <f>Avelumab_Original!C20/($D$12*77*1000)*100</f>
+        <v>1.8512121212121207E-3</v>
+      </c>
+      <c r="D20">
+        <f>Avelumab_Original!D20</f>
+        <v>0</v>
+      </c>
+      <c r="E20" t="str">
+        <f>Avelumab_Original!E20</f>
+        <v>3_mgkg</v>
+      </c>
+      <c r="F20" t="str">
+        <f>Avelumab_Original!F20</f>
+        <v>Avelumab_3mgkg</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f>Avelumab_Original!A21</f>
+        <v>336</v>
+      </c>
+      <c r="B21" s="2">
+        <f>Avelumab_Original!B21/($D$12*77*1000)*100</f>
+        <v>1.5181818181818183E-3</v>
+      </c>
+      <c r="C21" s="2">
+        <f>Avelumab_Original!C21/($D$12*77*1000)*100</f>
+        <v>1.0567532467532466E-3</v>
+      </c>
+      <c r="D21">
+        <f>Avelumab_Original!D21</f>
+        <v>0</v>
+      </c>
+      <c r="E21" t="str">
+        <f>Avelumab_Original!E21</f>
+        <v>3_mgkg</v>
+      </c>
+      <c r="F21" t="str">
+        <f>Avelumab_Original!F21</f>
+        <v>Avelumab_3mgkg</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f>Avelumab_Original!A22</f>
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <f>Avelumab_Original!B22</f>
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <f>Avelumab_Original!C22</f>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f>Avelumab_Original!D22</f>
+        <v>10</v>
+      </c>
+      <c r="E22" t="str">
+        <f>Avelumab_Original!E22</f>
+        <v>10_mgkg</v>
+      </c>
+      <c r="F22" t="str">
+        <f>Avelumab_Original!F22</f>
+        <v>Avelumab_10mgkg</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f>Avelumab_Original!A23</f>
+        <v>1</v>
+      </c>
+      <c r="B23" s="2">
+        <f>Avelumab_Original!B23/($D$22*77*1000)*100</f>
+        <v>3.4665337662337654E-2</v>
+      </c>
+      <c r="C23" s="2">
+        <f>Avelumab_Original!C23/($D$22*77*1000)*100</f>
+        <v>1.1282649350649357E-2</v>
+      </c>
+      <c r="D23">
+        <f>Avelumab_Original!D23</f>
+        <v>0</v>
+      </c>
+      <c r="E23" t="str">
+        <f>Avelumab_Original!E23</f>
+        <v>10_mgkg</v>
+      </c>
+      <c r="F23" t="str">
+        <f>Avelumab_Original!F23</f>
+        <v>Avelumab_10mgkg</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f>Avelumab_Original!A24</f>
+        <v>3</v>
+      </c>
+      <c r="B24" s="2">
+        <f>Avelumab_Original!B24/($D$22*77*1000)*100</f>
+        <v>3.2881454545454547E-2</v>
+      </c>
+      <c r="C24" s="2">
+        <f>Avelumab_Original!C24/($D$22*77*1000)*100</f>
+        <v>7.7375454545454561E-3</v>
+      </c>
+      <c r="D24">
+        <f>Avelumab_Original!D24</f>
+        <v>0</v>
+      </c>
+      <c r="E24" t="str">
+        <f>Avelumab_Original!E24</f>
+        <v>10_mgkg</v>
+      </c>
+      <c r="F24" t="str">
+        <f>Avelumab_Original!F24</f>
+        <v>Avelumab_10mgkg</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f>Avelumab_Original!A25</f>
+        <v>6</v>
+      </c>
+      <c r="B25" s="2">
+        <f>Avelumab_Original!B25/($D$22*77*1000)*100</f>
+        <v>3.1189350649350647E-2</v>
+      </c>
+      <c r="C25" s="2">
+        <f>Avelumab_Original!C25/($D$22*77*1000)*100</f>
+        <v>1.0885779220779223E-2</v>
+      </c>
+      <c r="D25">
+        <f>Avelumab_Original!D25</f>
+        <v>0</v>
+      </c>
+      <c r="E25" t="str">
+        <f>Avelumab_Original!E25</f>
+        <v>10_mgkg</v>
+      </c>
+      <c r="F25" t="str">
+        <f>Avelumab_Original!F25</f>
+        <v>Avelumab_10mgkg</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f>Avelumab_Original!A26</f>
+        <v>12</v>
+      </c>
+      <c r="B26" s="2">
+        <f>Avelumab_Original!B26/($D$22*77*1000)*100</f>
+        <v>2.8061909090909089E-2</v>
+      </c>
+      <c r="C26" s="2">
+        <f>Avelumab_Original!C26/($D$22*77*1000)*100</f>
+        <v>1.1151337662337665E-2</v>
+      </c>
+      <c r="D26">
+        <f>Avelumab_Original!D26</f>
+        <v>0</v>
+      </c>
+      <c r="E26" t="str">
+        <f>Avelumab_Original!E26</f>
+        <v>10_mgkg</v>
+      </c>
+      <c r="F26" t="str">
+        <f>Avelumab_Original!F26</f>
+        <v>Avelumab_10mgkg</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f>Avelumab_Original!A27</f>
+        <v>24</v>
+      </c>
+      <c r="B27" s="2">
+        <f>Avelumab_Original!B27/($D$22*77*1000)*100</f>
+        <v>2.4374285714285713E-2</v>
+      </c>
+      <c r="C27" s="2">
+        <f>Avelumab_Original!C27/($D$22*77*1000)*100</f>
+        <v>9.0913506493506529E-3</v>
+      </c>
+      <c r="D27">
+        <f>Avelumab_Original!D27</f>
+        <v>0</v>
+      </c>
+      <c r="E27" t="str">
+        <f>Avelumab_Original!E27</f>
+        <v>10_mgkg</v>
+      </c>
+      <c r="F27" t="str">
+        <f>Avelumab_Original!F27</f>
+        <v>Avelumab_10mgkg</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f>Avelumab_Original!A28</f>
+        <v>36</v>
+      </c>
+      <c r="B28" s="2">
+        <f>Avelumab_Original!B28/($D$22*77*1000)*100</f>
+        <v>1.9437961038961039E-2</v>
+      </c>
+      <c r="C28" s="2">
+        <f>Avelumab_Original!C28/($D$22*77*1000)*100</f>
+        <v>5.3693636363636365E-3</v>
+      </c>
+      <c r="D28">
+        <f>Avelumab_Original!D28</f>
+        <v>0</v>
+      </c>
+      <c r="E28" t="str">
+        <f>Avelumab_Original!E28</f>
+        <v>10_mgkg</v>
+      </c>
+      <c r="F28" t="str">
+        <f>Avelumab_Original!F28</f>
+        <v>Avelumab_10mgkg</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f>Avelumab_Original!A29</f>
+        <v>48</v>
+      </c>
+      <c r="B29" s="2">
+        <f>Avelumab_Original!B29/($D$22*77*1000)*100</f>
+        <v>1.9048350649350652E-2</v>
+      </c>
+      <c r="C29" s="2">
+        <f>Avelumab_Original!C29/($D$22*77*1000)*100</f>
+        <v>5.7589740259740259E-3</v>
+      </c>
+      <c r="D29">
+        <f>Avelumab_Original!D29</f>
+        <v>0</v>
+      </c>
+      <c r="E29" t="str">
+        <f>Avelumab_Original!E29</f>
+        <v>10_mgkg</v>
+      </c>
+      <c r="F29" t="str">
+        <f>Avelumab_Original!F29</f>
+        <v>Avelumab_10mgkg</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f>Avelumab_Original!A30</f>
+        <v>168</v>
+      </c>
+      <c r="B30" s="2">
+        <f>Avelumab_Original!B30/($D$22*77*1000)*100</f>
+        <v>7.758896103896103E-3</v>
+      </c>
+      <c r="C30" s="2">
+        <f>Avelumab_Original!C30/($D$22*77*1000)*100</f>
+        <v>2.1693896103896107E-3</v>
+      </c>
+      <c r="D30">
+        <f>Avelumab_Original!D30</f>
+        <v>0</v>
+      </c>
+      <c r="E30" t="str">
+        <f>Avelumab_Original!E30</f>
+        <v>10_mgkg</v>
+      </c>
+      <c r="F30" t="str">
+        <f>Avelumab_Original!F30</f>
+        <v>Avelumab_10mgkg</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f>Avelumab_Original!A31</f>
+        <v>336</v>
+      </c>
+      <c r="B31" s="2">
+        <f>Avelumab_Original!B31/($D$22*77*1000)*100</f>
+        <v>3.0510259740259738E-3</v>
+      </c>
+      <c r="C31" s="2">
+        <f>Avelumab_Original!C31/($D$22*77*1000)*100</f>
+        <v>1.6875844155844154E-3</v>
+      </c>
+      <c r="D31">
+        <f>Avelumab_Original!D31</f>
+        <v>0</v>
+      </c>
+      <c r="E31" t="str">
+        <f>Avelumab_Original!E31</f>
+        <v>10_mgkg</v>
+      </c>
+      <c r="F31" t="str">
+        <f>Avelumab_Original!F31</f>
+        <v>Avelumab_10mgkg</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f>Avelumab_Original!A32</f>
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <f>Avelumab_Original!B32</f>
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <f>Avelumab_Original!C32</f>
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <f>Avelumab_Original!D32</f>
+        <v>20</v>
+      </c>
+      <c r="E32" t="str">
+        <f>Avelumab_Original!E32</f>
+        <v>20_mgkg</v>
+      </c>
+      <c r="F32" t="str">
+        <f>Avelumab_Original!F32</f>
+        <v>Avelumab_20mgkg</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f>Avelumab_Original!A33</f>
+        <v>1</v>
+      </c>
+      <c r="B33" s="2">
+        <f>Avelumab_Original!B33/($D$32*77*1000)*100</f>
+        <v>2.9397538961038961E-2</v>
+      </c>
+      <c r="C33" s="2">
+        <f>Avelumab_Original!C33/($D$32*77*1000)*100</f>
+        <v>9.5681168831168815E-3</v>
+      </c>
+      <c r="D33">
+        <f>Avelumab_Original!D33</f>
+        <v>0</v>
+      </c>
+      <c r="E33" t="str">
+        <f>Avelumab_Original!E33</f>
+        <v>20_mgkg</v>
+      </c>
+      <c r="F33" t="str">
+        <f>Avelumab_Original!F33</f>
+        <v>Avelumab_20mgkg</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f>Avelumab_Original!A34</f>
+        <v>3</v>
+      </c>
+      <c r="B34" s="2">
+        <f>Avelumab_Original!B34/($D$32*77*1000)*100</f>
+        <v>2.6919694805194808E-2</v>
+      </c>
+      <c r="C34" s="2">
+        <f>Avelumab_Original!C34/($D$32*77*1000)*100</f>
+        <v>1.0697428571428573E-2</v>
+      </c>
+      <c r="D34">
+        <f>Avelumab_Original!D34</f>
+        <v>0</v>
+      </c>
+      <c r="E34" t="str">
+        <f>Avelumab_Original!E34</f>
+        <v>20_mgkg</v>
+      </c>
+      <c r="F34" t="str">
+        <f>Avelumab_Original!F34</f>
+        <v>Avelumab_20mgkg</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f>Avelumab_Original!A35</f>
+        <v>6</v>
+      </c>
+      <c r="B35" s="2">
+        <f>Avelumab_Original!B35/($D$32*77*1000)*100</f>
+        <v>2.5534396103896104E-2</v>
+      </c>
+      <c r="C35" s="2">
+        <f>Avelumab_Original!C35/($D$32*77*1000)*100</f>
+        <v>8.310759740259745E-3</v>
+      </c>
+      <c r="D35">
+        <f>Avelumab_Original!D35</f>
+        <v>0</v>
+      </c>
+      <c r="E35" t="str">
+        <f>Avelumab_Original!E35</f>
+        <v>20_mgkg</v>
+      </c>
+      <c r="F35" t="str">
+        <f>Avelumab_Original!F35</f>
+        <v>Avelumab_20mgkg</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f>Avelumab_Original!A36</f>
+        <v>12</v>
+      </c>
+      <c r="B36" s="2">
+        <f>Avelumab_Original!B36/($D$32*77*1000)*100</f>
+        <v>2.3382162337662337E-2</v>
+      </c>
+      <c r="C36" s="2">
+        <f>Avelumab_Original!C36/($D$32*77*1000)*100</f>
+        <v>7.6102662337662304E-3</v>
+      </c>
+      <c r="D36">
+        <f>Avelumab_Original!D36</f>
+        <v>0</v>
+      </c>
+      <c r="E36" t="str">
+        <f>Avelumab_Original!E36</f>
+        <v>20_mgkg</v>
+      </c>
+      <c r="F36" t="str">
+        <f>Avelumab_Original!F36</f>
+        <v>Avelumab_20mgkg</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f>Avelumab_Original!A37</f>
+        <v>24</v>
+      </c>
+      <c r="B37" s="2">
+        <f>Avelumab_Original!B37/($D$32*77*1000)*100</f>
+        <v>1.9954967532467532E-2</v>
+      </c>
+      <c r="C37" s="2">
+        <f>Avelumab_Original!C37/($D$32*77*1000)*100</f>
+        <v>6.9647272727272726E-3</v>
+      </c>
+      <c r="D37">
+        <f>Avelumab_Original!D37</f>
+        <v>0</v>
+      </c>
+      <c r="E37" t="str">
+        <f>Avelumab_Original!E37</f>
+        <v>20_mgkg</v>
+      </c>
+      <c r="F37" t="str">
+        <f>Avelumab_Original!F37</f>
+        <v>Avelumab_20mgkg</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f>Avelumab_Original!A38</f>
+        <v>36</v>
+      </c>
+      <c r="B38" s="2">
+        <f>Avelumab_Original!B38/($D$32*77*1000)*100</f>
+        <v>1.6440727272727274E-2</v>
+      </c>
+      <c r="C38" s="2">
+        <f>Avelumab_Original!C38/($D$32*77*1000)*100</f>
+        <v>4.2295974025974023E-3</v>
+      </c>
+      <c r="D38">
+        <f>Avelumab_Original!D38</f>
+        <v>0</v>
+      </c>
+      <c r="E38" t="str">
+        <f>Avelumab_Original!E38</f>
+        <v>20_mgkg</v>
+      </c>
+      <c r="F38" t="str">
+        <f>Avelumab_Original!F38</f>
+        <v>Avelumab_20mgkg</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f>Avelumab_Original!A39</f>
+        <v>48</v>
+      </c>
+      <c r="B39" s="2">
+        <f>Avelumab_Original!B39/($D$32*77*1000)*100</f>
+        <v>1.5594675324675324E-2</v>
+      </c>
+      <c r="C39" s="2">
+        <f>Avelumab_Original!C39/($D$32*77*1000)*100</f>
+        <v>4.3602922077922105E-3</v>
+      </c>
+      <c r="D39">
+        <f>Avelumab_Original!D39</f>
+        <v>0</v>
+      </c>
+      <c r="E39" t="str">
+        <f>Avelumab_Original!E39</f>
+        <v>20_mgkg</v>
+      </c>
+      <c r="F39" t="str">
+        <f>Avelumab_Original!F39</f>
+        <v>Avelumab_20mgkg</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f>Avelumab_Original!A40</f>
+        <v>168</v>
+      </c>
+      <c r="B40" s="2">
+        <f>Avelumab_Original!B40/($D$32*77*1000)*100</f>
+        <v>6.9368116883116874E-3</v>
+      </c>
+      <c r="C40" s="2">
+        <f>Avelumab_Original!C40/($D$32*77*1000)*100</f>
+        <v>3.2824610389610392E-3</v>
+      </c>
+      <c r="D40">
+        <f>Avelumab_Original!D40</f>
+        <v>0</v>
+      </c>
+      <c r="E40" t="str">
+        <f>Avelumab_Original!E40</f>
+        <v>20_mgkg</v>
+      </c>
+      <c r="F40" t="str">
+        <f>Avelumab_Original!F40</f>
+        <v>Avelumab_20mgkg</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <f>Avelumab_Original!A41</f>
+        <v>336</v>
+      </c>
+      <c r="B41" s="2">
+        <f>Avelumab_Original!B41/($D$32*77*1000)*100</f>
+        <v>3.3108246753246751E-3</v>
+      </c>
+      <c r="C41" s="2">
+        <f>Avelumab_Original!C41/($D$32*77*1000)*100</f>
+        <v>2.2065649350649346E-3</v>
+      </c>
+      <c r="D41">
+        <f>Avelumab_Original!D41</f>
+        <v>0</v>
+      </c>
+      <c r="E41" t="str">
+        <f>Avelumab_Original!E41</f>
+        <v>20_mgkg</v>
+      </c>
+      <c r="F41" t="str">
+        <f>Avelumab_Original!F41</f>
+        <v>Avelumab_20mgkg</v>
       </c>
     </row>
   </sheetData>
@@ -439,13 +1507,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6421FB-83CE-C74C-9D5D-34BE1EEBC9DE}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -469,110 +1540,838 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>18.039100000000001</v>
-      </c>
-      <c r="C2">
-        <f>20.7682-B2</f>
-        <v>2.729099999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>16.812100000000001</v>
       </c>
       <c r="C3">
         <f>20.7682-B3</f>
+        <v>2.729099999999999</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>16.812100000000001</v>
+      </c>
+      <c r="C4">
+        <f>20.7682-B4</f>
         <v>3.9560999999999993</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>15.126300000000001</v>
-      </c>
-      <c r="C4">
-        <f>18.6857-B4</f>
-        <v>3.5594000000000001</v>
+      <c r="F4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>13.509499999999999</v>
+        <v>15.126300000000001</v>
       </c>
       <c r="C5">
         <f>18.6857-B5</f>
-        <v>5.1762000000000015</v>
+        <v>3.5594000000000001</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>11.412000000000001</v>
+        <v>13.509499999999999</v>
       </c>
       <c r="C6">
-        <f>14.3479-B6</f>
-        <v>2.9358999999999984</v>
+        <f>18.6857-B6</f>
+        <v>5.1762000000000015</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B7">
-        <v>9.4022000000000006</v>
+        <v>11.412000000000001</v>
       </c>
       <c r="C7">
-        <f>11.6147-B7</f>
-        <v>2.2124999999999986</v>
+        <f>14.3479-B7</f>
+        <v>2.9358999999999984</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B8">
-        <v>8.3117999999999999</v>
+        <v>9.4022000000000006</v>
       </c>
       <c r="C8">
-        <f>10.6358-B8</f>
-        <v>2.3239999999999998</v>
+        <f>11.6147-B8</f>
+        <v>2.2124999999999986</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>168</v>
+        <v>48</v>
       </c>
       <c r="B9">
-        <v>2.339</v>
+        <v>8.3117999999999999</v>
       </c>
       <c r="C9">
-        <f>3.6327-B9</f>
-        <v>1.2936999999999999</v>
+        <f>10.6358-B9</f>
+        <v>2.3239999999999998</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
+        <v>168</v>
+      </c>
+      <c r="B10">
+        <v>2.339</v>
+      </c>
+      <c r="C10">
+        <f>3.6327-B10</f>
+        <v>1.2936999999999999</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>336</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>0.22090000000000001</v>
       </c>
-      <c r="C10">
-        <f>0.2455-B10</f>
+      <c r="C11">
+        <f>0.2455-B11</f>
         <v>2.4599999999999983E-2</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>66.401799999999994</v>
+      </c>
+      <c r="C13">
+        <f>92.7887-B13</f>
+        <v>26.386900000000011</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>79.188400000000001</v>
+      </c>
+      <c r="C14">
+        <f>99.5607-B14</f>
+        <v>20.372299999999996</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>65.242599999999996</v>
+      </c>
+      <c r="C15">
+        <f>79.1884-B15</f>
+        <v>13.945800000000006</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>55.6798</v>
+      </c>
+      <c r="C16">
+        <f>75.1133-B16</f>
+        <v>19.433499999999995</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>46.6892</v>
+      </c>
+      <c r="C17">
+        <f>59.7435-B17</f>
+        <v>13.054299999999998</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>37.1355</v>
+      </c>
+      <c r="C18">
+        <f>48.3629-B18</f>
+        <v>11.227400000000003</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>48</v>
+      </c>
+      <c r="B19">
+        <v>36.487299999999998</v>
+      </c>
+      <c r="C19">
+        <f>47.5187-B19</f>
+        <v>11.031400000000005</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>168</v>
+      </c>
+      <c r="B20">
+        <v>13.138500000000001</v>
+      </c>
+      <c r="C20">
+        <f>17.4148-B20</f>
+        <v>4.2762999999999991</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>336</v>
+      </c>
+      <c r="B21">
+        <v>3.5070000000000001</v>
+      </c>
+      <c r="C21">
+        <f>5.9481-B21</f>
+        <v>2.4411</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>266.92309999999998</v>
+      </c>
+      <c r="C23">
+        <f>353.7995-B23</f>
+        <v>86.876400000000046</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>253.18719999999999</v>
+      </c>
+      <c r="C24">
+        <f>312.7663-B24</f>
+        <v>59.579100000000011</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>240.15799999999999</v>
+      </c>
+      <c r="C25">
+        <f>323.9785-B25</f>
+        <v>83.82050000000001</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <v>216.07669999999999</v>
+      </c>
+      <c r="C26">
+        <f>301.942-B26</f>
+        <v>85.865300000000019</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>187.68199999999999</v>
+      </c>
+      <c r="C27">
+        <f>257.6854-B27</f>
+        <v>70.003400000000028</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>149.67230000000001</v>
+      </c>
+      <c r="C28">
+        <f>191.0164-B28</f>
+        <v>41.344099999999997</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>48</v>
+      </c>
+      <c r="B29">
+        <v>146.67230000000001</v>
+      </c>
+      <c r="C29">
+        <f>191.0164-B29</f>
+        <v>44.344099999999997</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>168</v>
+      </c>
+      <c r="B30">
+        <v>59.743499999999997</v>
+      </c>
+      <c r="C30">
+        <f>76.4478-B30</f>
+        <v>16.704300000000003</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>336</v>
+      </c>
+      <c r="B31">
+        <v>23.492899999999999</v>
+      </c>
+      <c r="C31">
+        <f>36.4873-B31</f>
+        <v>12.994399999999999</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>20</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>452.72210000000001</v>
+      </c>
+      <c r="C33">
+        <f>600.0711-B33</f>
+        <v>147.34899999999999</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>414.56330000000003</v>
+      </c>
+      <c r="C34">
+        <f>579.3037-B34</f>
+        <v>164.74040000000002</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <v>393.22969999999998</v>
+      </c>
+      <c r="C35">
+        <f>521.2154-B35</f>
+        <v>127.98570000000007</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>12</v>
+      </c>
+      <c r="B36">
+        <v>360.08530000000002</v>
+      </c>
+      <c r="C36">
+        <f>477.2834-B36</f>
+        <v>117.19809999999995</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>24</v>
+      </c>
+      <c r="B37">
+        <v>307.30650000000003</v>
+      </c>
+      <c r="C37">
+        <f>414.5633-B37</f>
+        <v>107.2568</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>253.18719999999999</v>
+      </c>
+      <c r="C38">
+        <f>318.323-B38</f>
+        <v>65.135799999999989</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>48</v>
+      </c>
+      <c r="B39">
+        <v>240.15799999999999</v>
+      </c>
+      <c r="C39">
+        <f>307.3065-B39</f>
+        <v>67.148500000000041</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>168</v>
+      </c>
+      <c r="B40">
+        <v>106.82689999999999</v>
+      </c>
+      <c r="C40">
+        <f>157.3768-B40</f>
+        <v>50.549900000000008</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>336</v>
+      </c>
+      <c r="B41">
+        <v>50.986699999999999</v>
+      </c>
+      <c r="C41">
+        <f>84.9678-B41</f>
+        <v>33.981099999999998</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/Heery_2017.xlsx
+++ b/data/Heery_2017.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migueltenorio/Documents/GitHub/CIT-SimBiology-Toolbox/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712652F5-B772-014C-8A3B-1CCCEFF742B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE5AB19-EEC4-B84E-993B-B910F74EDA99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="720" windowWidth="22840" windowHeight="16540" activeTab="1" xr2:uid="{0F507B3E-ECAE-C140-965E-86969F6C2F56}"/>
+    <workbookView xWindow="1320" yWindow="460" windowWidth="22840" windowHeight="15540" xr2:uid="{0F507B3E-ECAE-C140-965E-86969F6C2F56}"/>
   </bookViews>
   <sheets>
     <sheet name="Avelumab" sheetId="1" r:id="rId1"/>
     <sheet name="Avelumab_Original" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,12 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="21">
   <si>
     <t>Time[hour(s)]</t>
-  </si>
-  <si>
-    <t>Blood.antiPDL1[%ID/g]</t>
   </si>
   <si>
     <t>SD[%ID/g]</t>
@@ -77,13 +74,37 @@
   <si>
     <t>Avelumab_20mgkg</t>
   </si>
+  <si>
+    <t>Blood.antiPDL1_free[%ID/g]</t>
+  </si>
+  <si>
+    <t>SD[µg/ml]</t>
+  </si>
+  <si>
+    <t>Tumor.antiPDL1_free[%ID/g]</t>
+  </si>
+  <si>
+    <t>Dose2[mg/kg]</t>
+  </si>
+  <si>
+    <t>Dose[mg/kg]</t>
+  </si>
+  <si>
+    <t>Blood.antiPDL1_free[micromole/ml]</t>
+  </si>
+  <si>
+    <t>Tumor.antiPDL1_free[micromole/ml]</t>
+  </si>
+  <si>
+    <t>SD[micromole/ml]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -117,7 +138,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,35 +453,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A3C775-0FD8-C147-863E-FDDE61C38977}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>Avelumab_Original!A2</f>
         <v>0</v>
@@ -473,254 +523,364 @@
         <f>Avelumab_Original!C2</f>
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
+        <f>Avelumab_Original!B2/150000</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <f>Avelumab_Original!C2/150000</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
         <f>Avelumab_Original!D2</f>
         <v>1</v>
       </c>
-      <c r="E2" t="str">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="str">
         <f>Avelumab_Original!E2</f>
         <v>1_mgkg</v>
       </c>
-      <c r="F2" t="str">
+      <c r="M2" t="str">
         <f>Avelumab_Original!F2</f>
         <v>Avelumab_1mgkg</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>Avelumab_Original!A3</f>
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <f>Avelumab_Original!B3/($D$2*77*1000)*100</f>
+        <f>Avelumab_Original!B3/($J$2*77*1000)*100</f>
         <v>2.34274025974026E-2</v>
       </c>
       <c r="C3" s="2">
-        <f>Avelumab_Original!C3/($D$2*77*1000)*100</f>
+        <f>Avelumab_Original!C3/($J$2*77*1000)*100</f>
         <v>3.5442857142857129E-3</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
+        <f>Avelumab_Original!B3/150000</f>
+        <v>1.2026066666666667E-4</v>
+      </c>
+      <c r="E3" s="2">
+        <f>Avelumab_Original!C3/150000</f>
+        <v>1.8193999999999992E-5</v>
+      </c>
+      <c r="J3">
         <f>Avelumab_Original!D3</f>
         <v>0</v>
       </c>
-      <c r="E3" t="str">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="str">
         <f>Avelumab_Original!E3</f>
         <v>1_mgkg</v>
       </c>
-      <c r="F3" t="str">
+      <c r="M3" t="str">
         <f>Avelumab_Original!F3</f>
         <v>Avelumab_1mgkg</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>Avelumab_Original!A4</f>
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>Avelumab_Original!B4/($D$2*77*1000)*100</f>
+        <f>Avelumab_Original!B4/($J$2*77*1000)*100</f>
         <v>2.1833896103896105E-2</v>
       </c>
       <c r="C4" s="2">
-        <f>Avelumab_Original!C4/($D$2*77*1000)*100</f>
+        <f>Avelumab_Original!C4/($J$2*77*1000)*100</f>
         <v>5.1377922077922066E-3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
+        <f>Avelumab_Original!B4/150000</f>
+        <v>1.1208066666666668E-4</v>
+      </c>
+      <c r="E4" s="2">
+        <f>Avelumab_Original!C4/150000</f>
+        <v>2.6373999999999995E-5</v>
+      </c>
+      <c r="J4">
         <f>Avelumab_Original!D4</f>
         <v>0</v>
       </c>
-      <c r="E4" t="str">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="str">
         <f>Avelumab_Original!E4</f>
         <v>1_mgkg</v>
       </c>
-      <c r="F4" t="str">
+      <c r="M4" t="str">
         <f>Avelumab_Original!F4</f>
         <v>Avelumab_1mgkg</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>Avelumab_Original!A5</f>
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <f>Avelumab_Original!B5/($D$2*77*1000)*100</f>
+        <f>Avelumab_Original!B5/($J$2*77*1000)*100</f>
         <v>1.9644545454545456E-2</v>
       </c>
       <c r="C5" s="2">
-        <f>Avelumab_Original!C5/($D$2*77*1000)*100</f>
+        <f>Avelumab_Original!C5/($J$2*77*1000)*100</f>
         <v>4.6225974025974025E-3</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
+        <f>Avelumab_Original!B5/150000</f>
+        <v>1.0084200000000001E-4</v>
+      </c>
+      <c r="E5" s="2">
+        <f>Avelumab_Original!C5/150000</f>
+        <v>2.3729333333333333E-5</v>
+      </c>
+      <c r="J5">
         <f>Avelumab_Original!D5</f>
         <v>0</v>
       </c>
-      <c r="E5" t="str">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="str">
         <f>Avelumab_Original!E5</f>
         <v>1_mgkg</v>
       </c>
-      <c r="F5" t="str">
+      <c r="M5" t="str">
         <f>Avelumab_Original!F5</f>
         <v>Avelumab_1mgkg</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>Avelumab_Original!A6</f>
         <v>12</v>
       </c>
       <c r="B6" s="2">
-        <f>Avelumab_Original!B6/($D$2*77*1000)*100</f>
+        <f>Avelumab_Original!B6/($J$2*77*1000)*100</f>
         <v>1.7544805194805193E-2</v>
       </c>
       <c r="C6" s="2">
-        <f>Avelumab_Original!C6/($D$2*77*1000)*100</f>
+        <f>Avelumab_Original!C6/($J$2*77*1000)*100</f>
         <v>6.722337662337664E-3</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
+        <f>Avelumab_Original!B6/150000</f>
+        <v>9.0063333333333329E-5</v>
+      </c>
+      <c r="E6" s="2">
+        <f>Avelumab_Original!C6/150000</f>
+        <v>3.4508000000000009E-5</v>
+      </c>
+      <c r="J6">
         <f>Avelumab_Original!D6</f>
         <v>0</v>
       </c>
-      <c r="E6" t="str">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="str">
         <f>Avelumab_Original!E6</f>
         <v>1_mgkg</v>
       </c>
-      <c r="F6" t="str">
+      <c r="M6" t="str">
         <f>Avelumab_Original!F6</f>
         <v>Avelumab_1mgkg</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>Avelumab_Original!A7</f>
         <v>24</v>
       </c>
       <c r="B7" s="2">
-        <f>Avelumab_Original!B7/($D$2*77*1000)*100</f>
+        <f>Avelumab_Original!B7/($J$2*77*1000)*100</f>
         <v>1.4820779220779224E-2</v>
       </c>
       <c r="C7" s="2">
-        <f>Avelumab_Original!C7/($D$2*77*1000)*100</f>
+        <f>Avelumab_Original!C7/($J$2*77*1000)*100</f>
         <v>3.8128571428571413E-3</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
+        <f>Avelumab_Original!B7/150000</f>
+        <v>7.6080000000000003E-5</v>
+      </c>
+      <c r="E7" s="2">
+        <f>Avelumab_Original!C7/150000</f>
+        <v>1.9572666666666656E-5</v>
+      </c>
+      <c r="J7">
         <f>Avelumab_Original!D7</f>
         <v>0</v>
       </c>
-      <c r="E7" t="str">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="str">
         <f>Avelumab_Original!E7</f>
         <v>1_mgkg</v>
       </c>
-      <c r="F7" t="str">
+      <c r="M7" t="str">
         <f>Avelumab_Original!F7</f>
         <v>Avelumab_1mgkg</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>Avelumab_Original!A8</f>
         <v>36</v>
       </c>
       <c r="B8" s="2">
-        <f>Avelumab_Original!B8/($D$2*77*1000)*100</f>
+        <f>Avelumab_Original!B8/($J$2*77*1000)*100</f>
         <v>1.221064935064935E-2</v>
       </c>
       <c r="C8" s="2">
-        <f>Avelumab_Original!C8/($D$2*77*1000)*100</f>
+        <f>Avelumab_Original!C8/($J$2*77*1000)*100</f>
         <v>2.8733766233766216E-3</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
+        <f>Avelumab_Original!B8/150000</f>
+        <v>6.2681333333333339E-5</v>
+      </c>
+      <c r="E8" s="2">
+        <f>Avelumab_Original!C8/150000</f>
+        <v>1.4749999999999991E-5</v>
+      </c>
+      <c r="J8">
         <f>Avelumab_Original!D8</f>
         <v>0</v>
       </c>
-      <c r="E8" t="str">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="str">
         <f>Avelumab_Original!E8</f>
         <v>1_mgkg</v>
       </c>
-      <c r="F8" t="str">
+      <c r="M8" t="str">
         <f>Avelumab_Original!F8</f>
         <v>Avelumab_1mgkg</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <f>Avelumab_Original!A9</f>
         <v>48</v>
       </c>
       <c r="B9" s="2">
-        <f>Avelumab_Original!B9/($D$2*77*1000)*100</f>
+        <f>Avelumab_Original!B9/($J$2*77*1000)*100</f>
         <v>1.0794545454545454E-2</v>
       </c>
       <c r="C9" s="2">
-        <f>Avelumab_Original!C9/($D$2*77*1000)*100</f>
+        <f>Avelumab_Original!C9/($J$2*77*1000)*100</f>
         <v>3.0181818181818179E-3</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
+        <f>Avelumab_Original!B9/150000</f>
+        <v>5.5411999999999997E-5</v>
+      </c>
+      <c r="E9" s="2">
+        <f>Avelumab_Original!C9/150000</f>
+        <v>1.5493333333333333E-5</v>
+      </c>
+      <c r="J9">
         <f>Avelumab_Original!D9</f>
         <v>0</v>
       </c>
-      <c r="E9" t="str">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="str">
         <f>Avelumab_Original!E9</f>
         <v>1_mgkg</v>
       </c>
-      <c r="F9" t="str">
+      <c r="M9" t="str">
         <f>Avelumab_Original!F9</f>
         <v>Avelumab_1mgkg</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>Avelumab_Original!A10</f>
         <v>168</v>
       </c>
       <c r="B10" s="2">
-        <f>Avelumab_Original!B10/($D$2*77*1000)*100</f>
+        <f>Avelumab_Original!B10/($J$2*77*1000)*100</f>
         <v>3.0376623376623378E-3</v>
       </c>
       <c r="C10" s="2">
-        <f>Avelumab_Original!C10/($D$2*77*1000)*100</f>
+        <f>Avelumab_Original!C10/($J$2*77*1000)*100</f>
         <v>1.6801298701298699E-3</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
+        <f>Avelumab_Original!B10/150000</f>
+        <v>1.5593333333333332E-5</v>
+      </c>
+      <c r="E10" s="2">
+        <f>Avelumab_Original!C10/150000</f>
+        <v>8.6246666666666655E-6</v>
+      </c>
+      <c r="J10">
         <f>Avelumab_Original!D10</f>
         <v>0</v>
       </c>
-      <c r="E10" t="str">
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="str">
         <f>Avelumab_Original!E10</f>
         <v>1_mgkg</v>
       </c>
-      <c r="F10" t="str">
+      <c r="M10" t="str">
         <f>Avelumab_Original!F10</f>
         <v>Avelumab_1mgkg</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <f>Avelumab_Original!A11</f>
         <v>336</v>
       </c>
       <c r="B11" s="2">
-        <f>Avelumab_Original!B11/($D$2*77*1000)*100</f>
+        <f>Avelumab_Original!B11/($J$2*77*1000)*100</f>
         <v>2.8688311688311688E-4</v>
       </c>
       <c r="C11" s="2">
-        <f>Avelumab_Original!C11/($D$2*77*1000)*100</f>
+        <f>Avelumab_Original!C11/($J$2*77*1000)*100</f>
         <v>3.1948051948051925E-5</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
+        <f>Avelumab_Original!B11/150000</f>
+        <v>1.4726666666666667E-6</v>
+      </c>
+      <c r="E11" s="2">
+        <f>Avelumab_Original!C11/150000</f>
+        <v>1.6399999999999988E-7</v>
+      </c>
+      <c r="J11">
         <f>Avelumab_Original!D11</f>
         <v>0</v>
       </c>
-      <c r="E11" t="str">
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="str">
         <f>Avelumab_Original!E11</f>
         <v>1_mgkg</v>
       </c>
-      <c r="F11" t="str">
+      <c r="M11" t="str">
         <f>Avelumab_Original!F11</f>
         <v>Avelumab_1mgkg</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <f>Avelumab_Original!A12</f>
         <v>0</v>
@@ -733,254 +893,364 @@
         <f>Avelumab_Original!C12</f>
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
+        <f>Avelumab_Original!B12/150000</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <f>Avelumab_Original!C12/150000</f>
+        <v>0</v>
+      </c>
+      <c r="J12">
         <f>Avelumab_Original!D12</f>
         <v>3</v>
       </c>
-      <c r="E12" t="str">
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="str">
         <f>Avelumab_Original!E12</f>
         <v>3_mgkg</v>
       </c>
-      <c r="F12" t="str">
+      <c r="M12" t="str">
         <f>Avelumab_Original!F12</f>
         <v>Avelumab_3mgkg</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <f>Avelumab_Original!A13</f>
         <v>1</v>
       </c>
       <c r="B13" s="2">
-        <f>Avelumab_Original!B13/($D$12*77*1000)*100</f>
+        <f>Avelumab_Original!B13/($J$12*77*1000)*100</f>
         <v>2.8745367965367963E-2</v>
       </c>
       <c r="C13" s="2">
-        <f>Avelumab_Original!C13/($D$12*77*1000)*100</f>
+        <f>Avelumab_Original!C13/($J$12*77*1000)*100</f>
         <v>1.1422900432900437E-2</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
+        <f>Avelumab_Original!B13/150000</f>
+        <v>4.4267866666666665E-4</v>
+      </c>
+      <c r="E13" s="2">
+        <f>Avelumab_Original!C13/150000</f>
+        <v>1.7591266666666674E-4</v>
+      </c>
+      <c r="J13">
         <f>Avelumab_Original!D13</f>
         <v>0</v>
       </c>
-      <c r="E13" t="str">
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="str">
         <f>Avelumab_Original!E13</f>
         <v>3_mgkg</v>
       </c>
-      <c r="F13" t="str">
+      <c r="M13" t="str">
         <f>Avelumab_Original!F13</f>
         <v>Avelumab_3mgkg</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <f>Avelumab_Original!A14</f>
         <v>3</v>
       </c>
       <c r="B14" s="2">
-        <f>Avelumab_Original!B14/($D$12*77*1000)*100</f>
+        <f>Avelumab_Original!B14/($J$12*77*1000)*100</f>
         <v>3.4280692640692639E-2</v>
       </c>
       <c r="C14" s="2">
-        <f>Avelumab_Original!C14/($D$12*77*1000)*100</f>
+        <f>Avelumab_Original!C14/($J$12*77*1000)*100</f>
         <v>8.8191774891774877E-3</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
+        <f>Avelumab_Original!B14/150000</f>
+        <v>5.2792266666666665E-4</v>
+      </c>
+      <c r="E14" s="2">
+        <f>Avelumab_Original!C14/150000</f>
+        <v>1.3581533333333331E-4</v>
+      </c>
+      <c r="J14">
         <f>Avelumab_Original!D14</f>
         <v>0</v>
       </c>
-      <c r="E14" t="str">
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="str">
         <f>Avelumab_Original!E14</f>
         <v>3_mgkg</v>
       </c>
-      <c r="F14" t="str">
+      <c r="M14" t="str">
         <f>Avelumab_Original!F14</f>
         <v>Avelumab_3mgkg</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <f>Avelumab_Original!A15</f>
         <v>6</v>
       </c>
       <c r="B15" s="2">
-        <f>Avelumab_Original!B15/($D$12*77*1000)*100</f>
+        <f>Avelumab_Original!B15/($J$12*77*1000)*100</f>
         <v>2.824354978354978E-2</v>
       </c>
       <c r="C15" s="2">
-        <f>Avelumab_Original!C15/($D$12*77*1000)*100</f>
+        <f>Avelumab_Original!C15/($J$12*77*1000)*100</f>
         <v>6.0371428571428598E-3</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
+        <f>Avelumab_Original!B15/150000</f>
+        <v>4.3495066666666662E-4</v>
+      </c>
+      <c r="E15" s="2">
+        <f>Avelumab_Original!C15/150000</f>
+        <v>9.2972000000000031E-5</v>
+      </c>
+      <c r="J15">
         <f>Avelumab_Original!D15</f>
         <v>0</v>
       </c>
-      <c r="E15" t="str">
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="str">
         <f>Avelumab_Original!E15</f>
         <v>3_mgkg</v>
       </c>
-      <c r="F15" t="str">
+      <c r="M15" t="str">
         <f>Avelumab_Original!F15</f>
         <v>Avelumab_3mgkg</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <f>Avelumab_Original!A16</f>
         <v>12</v>
       </c>
       <c r="B16" s="2">
-        <f>Avelumab_Original!B16/($D$12*77*1000)*100</f>
+        <f>Avelumab_Original!B16/($J$12*77*1000)*100</f>
         <v>2.4103809523809524E-2</v>
       </c>
       <c r="C16" s="2">
-        <f>Avelumab_Original!C16/($D$12*77*1000)*100</f>
+        <f>Avelumab_Original!C16/($J$12*77*1000)*100</f>
         <v>8.4127705627705593E-3</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
+        <f>Avelumab_Original!B16/150000</f>
+        <v>3.7119866666666669E-4</v>
+      </c>
+      <c r="E16" s="2">
+        <f>Avelumab_Original!C16/150000</f>
+        <v>1.2955666666666663E-4</v>
+      </c>
+      <c r="J16">
         <f>Avelumab_Original!D16</f>
         <v>0</v>
       </c>
-      <c r="E16" t="str">
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="str">
         <f>Avelumab_Original!E16</f>
         <v>3_mgkg</v>
       </c>
-      <c r="F16" t="str">
+      <c r="M16" t="str">
         <f>Avelumab_Original!F16</f>
         <v>Avelumab_3mgkg</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <f>Avelumab_Original!A17</f>
         <v>24</v>
       </c>
       <c r="B17" s="2">
-        <f>Avelumab_Original!B17/($D$12*77*1000)*100</f>
+        <f>Avelumab_Original!B17/($J$12*77*1000)*100</f>
         <v>2.0211774891774892E-2</v>
       </c>
       <c r="C17" s="2">
-        <f>Avelumab_Original!C17/($D$12*77*1000)*100</f>
+        <f>Avelumab_Original!C17/($J$12*77*1000)*100</f>
         <v>5.6512121212121203E-3</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
+        <f>Avelumab_Original!B17/150000</f>
+        <v>3.1126133333333333E-4</v>
+      </c>
+      <c r="E17" s="2">
+        <f>Avelumab_Original!C17/150000</f>
+        <v>8.7028666666666649E-5</v>
+      </c>
+      <c r="J17">
         <f>Avelumab_Original!D17</f>
         <v>0</v>
       </c>
-      <c r="E17" t="str">
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="str">
         <f>Avelumab_Original!E17</f>
         <v>3_mgkg</v>
       </c>
-      <c r="F17" t="str">
+      <c r="M17" t="str">
         <f>Avelumab_Original!F17</f>
         <v>Avelumab_3mgkg</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <f>Avelumab_Original!A18</f>
         <v>36</v>
       </c>
       <c r="B18" s="2">
-        <f>Avelumab_Original!B18/($D$12*77*1000)*100</f>
+        <f>Avelumab_Original!B18/($J$12*77*1000)*100</f>
         <v>1.6075974025974025E-2</v>
       </c>
       <c r="C18" s="2">
-        <f>Avelumab_Original!C18/($D$12*77*1000)*100</f>
+        <f>Avelumab_Original!C18/($J$12*77*1000)*100</f>
         <v>4.8603463203463221E-3</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
+        <f>Avelumab_Original!B18/150000</f>
+        <v>2.4757000000000002E-4</v>
+      </c>
+      <c r="E18" s="2">
+        <f>Avelumab_Original!C18/150000</f>
+        <v>7.4849333333333349E-5</v>
+      </c>
+      <c r="J18">
         <f>Avelumab_Original!D18</f>
         <v>0</v>
       </c>
-      <c r="E18" t="str">
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="str">
         <f>Avelumab_Original!E18</f>
         <v>3_mgkg</v>
       </c>
-      <c r="F18" t="str">
+      <c r="M18" t="str">
         <f>Avelumab_Original!F18</f>
         <v>Avelumab_3mgkg</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <f>Avelumab_Original!A19</f>
         <v>48</v>
       </c>
       <c r="B19" s="2">
-        <f>Avelumab_Original!B19/($D$12*77*1000)*100</f>
+        <f>Avelumab_Original!B19/($J$12*77*1000)*100</f>
         <v>1.5795367965367964E-2</v>
       </c>
       <c r="C19" s="2">
-        <f>Avelumab_Original!C19/($D$12*77*1000)*100</f>
+        <f>Avelumab_Original!C19/($J$12*77*1000)*100</f>
         <v>4.7754978354978377E-3</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
+        <f>Avelumab_Original!B19/150000</f>
+        <v>2.4324866666666664E-4</v>
+      </c>
+      <c r="E19" s="2">
+        <f>Avelumab_Original!C19/150000</f>
+        <v>7.3542666666666704E-5</v>
+      </c>
+      <c r="J19">
         <f>Avelumab_Original!D19</f>
         <v>0</v>
       </c>
-      <c r="E19" t="str">
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="str">
         <f>Avelumab_Original!E19</f>
         <v>3_mgkg</v>
       </c>
-      <c r="F19" t="str">
+      <c r="M19" t="str">
         <f>Avelumab_Original!F19</f>
         <v>Avelumab_3mgkg</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <f>Avelumab_Original!A20</f>
         <v>168</v>
       </c>
       <c r="B20" s="2">
-        <f>Avelumab_Original!B20/($D$12*77*1000)*100</f>
+        <f>Avelumab_Original!B20/($J$12*77*1000)*100</f>
         <v>5.6876623376623378E-3</v>
       </c>
       <c r="C20" s="2">
-        <f>Avelumab_Original!C20/($D$12*77*1000)*100</f>
+        <f>Avelumab_Original!C20/($J$12*77*1000)*100</f>
         <v>1.8512121212121207E-3</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
+        <f>Avelumab_Original!B20/150000</f>
+        <v>8.7590000000000007E-5</v>
+      </c>
+      <c r="E20" s="2">
+        <f>Avelumab_Original!C20/150000</f>
+        <v>2.850866666666666E-5</v>
+      </c>
+      <c r="J20">
         <f>Avelumab_Original!D20</f>
         <v>0</v>
       </c>
-      <c r="E20" t="str">
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="str">
         <f>Avelumab_Original!E20</f>
         <v>3_mgkg</v>
       </c>
-      <c r="F20" t="str">
+      <c r="M20" t="str">
         <f>Avelumab_Original!F20</f>
         <v>Avelumab_3mgkg</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <f>Avelumab_Original!A21</f>
         <v>336</v>
       </c>
       <c r="B21" s="2">
-        <f>Avelumab_Original!B21/($D$12*77*1000)*100</f>
+        <f>Avelumab_Original!B21/($J$12*77*1000)*100</f>
         <v>1.5181818181818183E-3</v>
       </c>
       <c r="C21" s="2">
-        <f>Avelumab_Original!C21/($D$12*77*1000)*100</f>
+        <f>Avelumab_Original!C21/($J$12*77*1000)*100</f>
         <v>1.0567532467532466E-3</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
+        <f>Avelumab_Original!B21/150000</f>
+        <v>2.338E-5</v>
+      </c>
+      <c r="E21" s="2">
+        <f>Avelumab_Original!C21/150000</f>
+        <v>1.6274E-5</v>
+      </c>
+      <c r="J21">
         <f>Avelumab_Original!D21</f>
         <v>0</v>
       </c>
-      <c r="E21" t="str">
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="str">
         <f>Avelumab_Original!E21</f>
         <v>3_mgkg</v>
       </c>
-      <c r="F21" t="str">
+      <c r="M21" t="str">
         <f>Avelumab_Original!F21</f>
         <v>Avelumab_3mgkg</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <f>Avelumab_Original!A22</f>
         <v>0</v>
@@ -993,254 +1263,364 @@
         <f>Avelumab_Original!C22</f>
         <v>0</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
+        <f>Avelumab_Original!B22/150000</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <f>Avelumab_Original!C22/150000</f>
+        <v>0</v>
+      </c>
+      <c r="J22">
         <f>Avelumab_Original!D22</f>
         <v>10</v>
       </c>
-      <c r="E22" t="str">
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" t="str">
         <f>Avelumab_Original!E22</f>
         <v>10_mgkg</v>
       </c>
-      <c r="F22" t="str">
+      <c r="M22" t="str">
         <f>Avelumab_Original!F22</f>
         <v>Avelumab_10mgkg</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <f>Avelumab_Original!A23</f>
         <v>1</v>
       </c>
       <c r="B23" s="2">
-        <f>Avelumab_Original!B23/($D$22*77*1000)*100</f>
+        <f>Avelumab_Original!B23/($J$22*77*1000)*100</f>
         <v>3.4665337662337654E-2</v>
       </c>
       <c r="C23" s="2">
-        <f>Avelumab_Original!C23/($D$22*77*1000)*100</f>
+        <f>Avelumab_Original!C23/($J$22*77*1000)*100</f>
         <v>1.1282649350649357E-2</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
+        <f>Avelumab_Original!B23/150000</f>
+        <v>1.7794873333333331E-3</v>
+      </c>
+      <c r="E23" s="2">
+        <f>Avelumab_Original!C23/150000</f>
+        <v>5.7917600000000026E-4</v>
+      </c>
+      <c r="J23">
         <f>Avelumab_Original!D23</f>
         <v>0</v>
       </c>
-      <c r="E23" t="str">
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="str">
         <f>Avelumab_Original!E23</f>
         <v>10_mgkg</v>
       </c>
-      <c r="F23" t="str">
+      <c r="M23" t="str">
         <f>Avelumab_Original!F23</f>
         <v>Avelumab_10mgkg</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <f>Avelumab_Original!A24</f>
         <v>3</v>
       </c>
       <c r="B24" s="2">
-        <f>Avelumab_Original!B24/($D$22*77*1000)*100</f>
+        <f>Avelumab_Original!B24/($J$22*77*1000)*100</f>
         <v>3.2881454545454547E-2</v>
       </c>
       <c r="C24" s="2">
-        <f>Avelumab_Original!C24/($D$22*77*1000)*100</f>
+        <f>Avelumab_Original!C24/($J$22*77*1000)*100</f>
         <v>7.7375454545454561E-3</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
+        <f>Avelumab_Original!B24/150000</f>
+        <v>1.6879146666666665E-3</v>
+      </c>
+      <c r="E24" s="2">
+        <f>Avelumab_Original!C24/150000</f>
+        <v>3.9719400000000007E-4</v>
+      </c>
+      <c r="J24">
         <f>Avelumab_Original!D24</f>
         <v>0</v>
       </c>
-      <c r="E24" t="str">
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="str">
         <f>Avelumab_Original!E24</f>
         <v>10_mgkg</v>
       </c>
-      <c r="F24" t="str">
+      <c r="M24" t="str">
         <f>Avelumab_Original!F24</f>
         <v>Avelumab_10mgkg</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <f>Avelumab_Original!A25</f>
         <v>6</v>
       </c>
       <c r="B25" s="2">
-        <f>Avelumab_Original!B25/($D$22*77*1000)*100</f>
+        <f>Avelumab_Original!B25/($J$22*77*1000)*100</f>
         <v>3.1189350649350647E-2</v>
       </c>
       <c r="C25" s="2">
-        <f>Avelumab_Original!C25/($D$22*77*1000)*100</f>
+        <f>Avelumab_Original!C25/($J$22*77*1000)*100</f>
         <v>1.0885779220779223E-2</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
+        <f>Avelumab_Original!B25/150000</f>
+        <v>1.6010533333333332E-3</v>
+      </c>
+      <c r="E25" s="2">
+        <f>Avelumab_Original!C25/150000</f>
+        <v>5.5880333333333345E-4</v>
+      </c>
+      <c r="J25">
         <f>Avelumab_Original!D25</f>
         <v>0</v>
       </c>
-      <c r="E25" t="str">
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" t="str">
         <f>Avelumab_Original!E25</f>
         <v>10_mgkg</v>
       </c>
-      <c r="F25" t="str">
+      <c r="M25" t="str">
         <f>Avelumab_Original!F25</f>
         <v>Avelumab_10mgkg</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <f>Avelumab_Original!A26</f>
         <v>12</v>
       </c>
       <c r="B26" s="2">
-        <f>Avelumab_Original!B26/($D$22*77*1000)*100</f>
+        <f>Avelumab_Original!B26/($J$22*77*1000)*100</f>
         <v>2.8061909090909089E-2</v>
       </c>
       <c r="C26" s="2">
-        <f>Avelumab_Original!C26/($D$22*77*1000)*100</f>
+        <f>Avelumab_Original!C26/($J$22*77*1000)*100</f>
         <v>1.1151337662337665E-2</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
+        <f>Avelumab_Original!B26/150000</f>
+        <v>1.4405113333333332E-3</v>
+      </c>
+      <c r="E26" s="2">
+        <f>Avelumab_Original!C26/150000</f>
+        <v>5.7243533333333342E-4</v>
+      </c>
+      <c r="J26">
         <f>Avelumab_Original!D26</f>
         <v>0</v>
       </c>
-      <c r="E26" t="str">
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="str">
         <f>Avelumab_Original!E26</f>
         <v>10_mgkg</v>
       </c>
-      <c r="F26" t="str">
+      <c r="M26" t="str">
         <f>Avelumab_Original!F26</f>
         <v>Avelumab_10mgkg</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <f>Avelumab_Original!A27</f>
         <v>24</v>
       </c>
       <c r="B27" s="2">
-        <f>Avelumab_Original!B27/($D$22*77*1000)*100</f>
+        <f>Avelumab_Original!B27/($J$22*77*1000)*100</f>
         <v>2.4374285714285713E-2</v>
       </c>
       <c r="C27" s="2">
-        <f>Avelumab_Original!C27/($D$22*77*1000)*100</f>
+        <f>Avelumab_Original!C27/($J$22*77*1000)*100</f>
         <v>9.0913506493506529E-3</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
+        <f>Avelumab_Original!B27/150000</f>
+        <v>1.2512133333333333E-3</v>
+      </c>
+      <c r="E27" s="2">
+        <f>Avelumab_Original!C27/150000</f>
+        <v>4.6668933333333354E-4</v>
+      </c>
+      <c r="J27">
         <f>Avelumab_Original!D27</f>
         <v>0</v>
       </c>
-      <c r="E27" t="str">
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" t="str">
         <f>Avelumab_Original!E27</f>
         <v>10_mgkg</v>
       </c>
-      <c r="F27" t="str">
+      <c r="M27" t="str">
         <f>Avelumab_Original!F27</f>
         <v>Avelumab_10mgkg</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <f>Avelumab_Original!A28</f>
         <v>36</v>
       </c>
       <c r="B28" s="2">
-        <f>Avelumab_Original!B28/($D$22*77*1000)*100</f>
+        <f>Avelumab_Original!B28/($J$22*77*1000)*100</f>
         <v>1.9437961038961039E-2</v>
       </c>
       <c r="C28" s="2">
-        <f>Avelumab_Original!C28/($D$22*77*1000)*100</f>
+        <f>Avelumab_Original!C28/($J$22*77*1000)*100</f>
         <v>5.3693636363636365E-3</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
+        <f>Avelumab_Original!B28/150000</f>
+        <v>9.9781533333333336E-4</v>
+      </c>
+      <c r="E28" s="2">
+        <f>Avelumab_Original!C28/150000</f>
+        <v>2.7562733333333334E-4</v>
+      </c>
+      <c r="J28">
         <f>Avelumab_Original!D28</f>
         <v>0</v>
       </c>
-      <c r="E28" t="str">
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" t="str">
         <f>Avelumab_Original!E28</f>
         <v>10_mgkg</v>
       </c>
-      <c r="F28" t="str">
+      <c r="M28" t="str">
         <f>Avelumab_Original!F28</f>
         <v>Avelumab_10mgkg</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <f>Avelumab_Original!A29</f>
         <v>48</v>
       </c>
       <c r="B29" s="2">
-        <f>Avelumab_Original!B29/($D$22*77*1000)*100</f>
+        <f>Avelumab_Original!B29/($J$22*77*1000)*100</f>
         <v>1.9048350649350652E-2</v>
       </c>
       <c r="C29" s="2">
-        <f>Avelumab_Original!C29/($D$22*77*1000)*100</f>
+        <f>Avelumab_Original!C29/($J$22*77*1000)*100</f>
         <v>5.7589740259740259E-3</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
+        <f>Avelumab_Original!B29/150000</f>
+        <v>9.7781533333333331E-4</v>
+      </c>
+      <c r="E29" s="2">
+        <f>Avelumab_Original!C29/150000</f>
+        <v>2.9562733333333334E-4</v>
+      </c>
+      <c r="J29">
         <f>Avelumab_Original!D29</f>
         <v>0</v>
       </c>
-      <c r="E29" t="str">
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" t="str">
         <f>Avelumab_Original!E29</f>
         <v>10_mgkg</v>
       </c>
-      <c r="F29" t="str">
+      <c r="M29" t="str">
         <f>Avelumab_Original!F29</f>
         <v>Avelumab_10mgkg</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <f>Avelumab_Original!A30</f>
         <v>168</v>
       </c>
       <c r="B30" s="2">
-        <f>Avelumab_Original!B30/($D$22*77*1000)*100</f>
+        <f>Avelumab_Original!B30/($J$22*77*1000)*100</f>
         <v>7.758896103896103E-3</v>
       </c>
       <c r="C30" s="2">
-        <f>Avelumab_Original!C30/($D$22*77*1000)*100</f>
+        <f>Avelumab_Original!C30/($J$22*77*1000)*100</f>
         <v>2.1693896103896107E-3</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
+        <f>Avelumab_Original!B30/150000</f>
+        <v>3.9828999999999998E-4</v>
+      </c>
+      <c r="E30" s="2">
+        <f>Avelumab_Original!C30/150000</f>
+        <v>1.1136200000000002E-4</v>
+      </c>
+      <c r="J30">
         <f>Avelumab_Original!D30</f>
         <v>0</v>
       </c>
-      <c r="E30" t="str">
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" t="str">
         <f>Avelumab_Original!E30</f>
         <v>10_mgkg</v>
       </c>
-      <c r="F30" t="str">
+      <c r="M30" t="str">
         <f>Avelumab_Original!F30</f>
         <v>Avelumab_10mgkg</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <f>Avelumab_Original!A31</f>
         <v>336</v>
       </c>
       <c r="B31" s="2">
-        <f>Avelumab_Original!B31/($D$22*77*1000)*100</f>
+        <f>Avelumab_Original!B31/($J$22*77*1000)*100</f>
         <v>3.0510259740259738E-3</v>
       </c>
       <c r="C31" s="2">
-        <f>Avelumab_Original!C31/($D$22*77*1000)*100</f>
+        <f>Avelumab_Original!C31/($J$22*77*1000)*100</f>
         <v>1.6875844155844154E-3</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
+        <f>Avelumab_Original!B31/150000</f>
+        <v>1.5661933333333333E-4</v>
+      </c>
+      <c r="E31" s="2">
+        <f>Avelumab_Original!C31/150000</f>
+        <v>8.6629333333333321E-5</v>
+      </c>
+      <c r="J31">
         <f>Avelumab_Original!D31</f>
         <v>0</v>
       </c>
-      <c r="E31" t="str">
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" t="str">
         <f>Avelumab_Original!E31</f>
         <v>10_mgkg</v>
       </c>
-      <c r="F31" t="str">
+      <c r="M31" t="str">
         <f>Avelumab_Original!F31</f>
         <v>Avelumab_10mgkg</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <f>Avelumab_Original!A32</f>
         <v>0</v>
@@ -1253,249 +1633,359 @@
         <f>Avelumab_Original!C32</f>
         <v>0</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
+        <f>Avelumab_Original!B32/150000</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <f>Avelumab_Original!C32/150000</f>
+        <v>0</v>
+      </c>
+      <c r="J32">
         <f>Avelumab_Original!D32</f>
         <v>20</v>
       </c>
-      <c r="E32" t="str">
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" t="str">
         <f>Avelumab_Original!E32</f>
         <v>20_mgkg</v>
       </c>
-      <c r="F32" t="str">
+      <c r="M32" t="str">
         <f>Avelumab_Original!F32</f>
         <v>Avelumab_20mgkg</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33">
         <f>Avelumab_Original!A33</f>
         <v>1</v>
       </c>
       <c r="B33" s="2">
-        <f>Avelumab_Original!B33/($D$32*77*1000)*100</f>
+        <f>Avelumab_Original!B33/($J$32*77*1000)*100</f>
         <v>2.9397538961038961E-2</v>
       </c>
       <c r="C33" s="2">
-        <f>Avelumab_Original!C33/($D$32*77*1000)*100</f>
+        <f>Avelumab_Original!C33/($J$32*77*1000)*100</f>
         <v>9.5681168831168815E-3</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
+        <f>Avelumab_Original!B33/150000</f>
+        <v>3.0181473333333333E-3</v>
+      </c>
+      <c r="E33" s="2">
+        <f>Avelumab_Original!C33/150000</f>
+        <v>9.823266666666667E-4</v>
+      </c>
+      <c r="J33">
         <f>Avelumab_Original!D33</f>
         <v>0</v>
       </c>
-      <c r="E33" t="str">
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" t="str">
         <f>Avelumab_Original!E33</f>
         <v>20_mgkg</v>
       </c>
-      <c r="F33" t="str">
+      <c r="M33" t="str">
         <f>Avelumab_Original!F33</f>
         <v>Avelumab_20mgkg</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34">
         <f>Avelumab_Original!A34</f>
         <v>3</v>
       </c>
       <c r="B34" s="2">
-        <f>Avelumab_Original!B34/($D$32*77*1000)*100</f>
+        <f>Avelumab_Original!B34/($J$32*77*1000)*100</f>
         <v>2.6919694805194808E-2</v>
       </c>
       <c r="C34" s="2">
-        <f>Avelumab_Original!C34/($D$32*77*1000)*100</f>
+        <f>Avelumab_Original!C34/($J$32*77*1000)*100</f>
         <v>1.0697428571428573E-2</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
+        <f>Avelumab_Original!B34/150000</f>
+        <v>2.7637553333333337E-3</v>
+      </c>
+      <c r="E34" s="2">
+        <f>Avelumab_Original!C34/150000</f>
+        <v>1.0982693333333334E-3</v>
+      </c>
+      <c r="J34">
         <f>Avelumab_Original!D34</f>
         <v>0</v>
       </c>
-      <c r="E34" t="str">
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" t="str">
         <f>Avelumab_Original!E34</f>
         <v>20_mgkg</v>
       </c>
-      <c r="F34" t="str">
+      <c r="M34" t="str">
         <f>Avelumab_Original!F34</f>
         <v>Avelumab_20mgkg</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
         <f>Avelumab_Original!A35</f>
         <v>6</v>
       </c>
       <c r="B35" s="2">
-        <f>Avelumab_Original!B35/($D$32*77*1000)*100</f>
+        <f>Avelumab_Original!B35/($J$32*77*1000)*100</f>
         <v>2.5534396103896104E-2</v>
       </c>
       <c r="C35" s="2">
-        <f>Avelumab_Original!C35/($D$32*77*1000)*100</f>
+        <f>Avelumab_Original!C35/($J$32*77*1000)*100</f>
         <v>8.310759740259745E-3</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
+        <f>Avelumab_Original!B35/150000</f>
+        <v>2.621531333333333E-3</v>
+      </c>
+      <c r="E35" s="2">
+        <f>Avelumab_Original!C35/150000</f>
+        <v>8.5323800000000041E-4</v>
+      </c>
+      <c r="J35">
         <f>Avelumab_Original!D35</f>
         <v>0</v>
       </c>
-      <c r="E35" t="str">
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" t="str">
         <f>Avelumab_Original!E35</f>
         <v>20_mgkg</v>
       </c>
-      <c r="F35" t="str">
+      <c r="M35" t="str">
         <f>Avelumab_Original!F35</f>
         <v>Avelumab_20mgkg</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
         <f>Avelumab_Original!A36</f>
         <v>12</v>
       </c>
       <c r="B36" s="2">
-        <f>Avelumab_Original!B36/($D$32*77*1000)*100</f>
+        <f>Avelumab_Original!B36/($J$32*77*1000)*100</f>
         <v>2.3382162337662337E-2</v>
       </c>
       <c r="C36" s="2">
-        <f>Avelumab_Original!C36/($D$32*77*1000)*100</f>
+        <f>Avelumab_Original!C36/($J$32*77*1000)*100</f>
         <v>7.6102662337662304E-3</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
+        <f>Avelumab_Original!B36/150000</f>
+        <v>2.4005686666666668E-3</v>
+      </c>
+      <c r="E36" s="2">
+        <f>Avelumab_Original!C36/150000</f>
+        <v>7.8132066666666638E-4</v>
+      </c>
+      <c r="J36">
         <f>Avelumab_Original!D36</f>
         <v>0</v>
       </c>
-      <c r="E36" t="str">
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36" t="str">
         <f>Avelumab_Original!E36</f>
         <v>20_mgkg</v>
       </c>
-      <c r="F36" t="str">
+      <c r="M36" t="str">
         <f>Avelumab_Original!F36</f>
         <v>Avelumab_20mgkg</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37">
         <f>Avelumab_Original!A37</f>
         <v>24</v>
       </c>
       <c r="B37" s="2">
-        <f>Avelumab_Original!B37/($D$32*77*1000)*100</f>
+        <f>Avelumab_Original!B37/($J$32*77*1000)*100</f>
         <v>1.9954967532467532E-2</v>
       </c>
       <c r="C37" s="2">
-        <f>Avelumab_Original!C37/($D$32*77*1000)*100</f>
+        <f>Avelumab_Original!C37/($J$32*77*1000)*100</f>
         <v>6.9647272727272726E-3</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2">
+        <f>Avelumab_Original!B37/150000</f>
+        <v>2.04871E-3</v>
+      </c>
+      <c r="E37" s="2">
+        <f>Avelumab_Original!C37/150000</f>
+        <v>7.1504533333333336E-4</v>
+      </c>
+      <c r="J37">
         <f>Avelumab_Original!D37</f>
         <v>0</v>
       </c>
-      <c r="E37" t="str">
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37" t="str">
         <f>Avelumab_Original!E37</f>
         <v>20_mgkg</v>
       </c>
-      <c r="F37" t="str">
+      <c r="M37" t="str">
         <f>Avelumab_Original!F37</f>
         <v>Avelumab_20mgkg</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38">
         <f>Avelumab_Original!A38</f>
         <v>36</v>
       </c>
       <c r="B38" s="2">
-        <f>Avelumab_Original!B38/($D$32*77*1000)*100</f>
+        <f>Avelumab_Original!B38/($J$32*77*1000)*100</f>
         <v>1.6440727272727274E-2</v>
       </c>
       <c r="C38" s="2">
-        <f>Avelumab_Original!C38/($D$32*77*1000)*100</f>
+        <f>Avelumab_Original!C38/($J$32*77*1000)*100</f>
         <v>4.2295974025974023E-3</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
+        <f>Avelumab_Original!B38/150000</f>
+        <v>1.6879146666666665E-3</v>
+      </c>
+      <c r="E38" s="2">
+        <f>Avelumab_Original!C38/150000</f>
+        <v>4.3423866666666657E-4</v>
+      </c>
+      <c r="J38">
         <f>Avelumab_Original!D38</f>
         <v>0</v>
       </c>
-      <c r="E38" t="str">
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38" t="str">
         <f>Avelumab_Original!E38</f>
         <v>20_mgkg</v>
       </c>
-      <c r="F38" t="str">
+      <c r="M38" t="str">
         <f>Avelumab_Original!F38</f>
         <v>Avelumab_20mgkg</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39">
         <f>Avelumab_Original!A39</f>
         <v>48</v>
       </c>
       <c r="B39" s="2">
-        <f>Avelumab_Original!B39/($D$32*77*1000)*100</f>
+        <f>Avelumab_Original!B39/($J$32*77*1000)*100</f>
         <v>1.5594675324675324E-2</v>
       </c>
       <c r="C39" s="2">
-        <f>Avelumab_Original!C39/($D$32*77*1000)*100</f>
+        <f>Avelumab_Original!C39/($J$32*77*1000)*100</f>
         <v>4.3602922077922105E-3</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
+        <f>Avelumab_Original!B39/150000</f>
+        <v>1.6010533333333332E-3</v>
+      </c>
+      <c r="E39" s="2">
+        <f>Avelumab_Original!C39/150000</f>
+        <v>4.4765666666666696E-4</v>
+      </c>
+      <c r="J39">
         <f>Avelumab_Original!D39</f>
         <v>0</v>
       </c>
-      <c r="E39" t="str">
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39" t="str">
         <f>Avelumab_Original!E39</f>
         <v>20_mgkg</v>
       </c>
-      <c r="F39" t="str">
+      <c r="M39" t="str">
         <f>Avelumab_Original!F39</f>
         <v>Avelumab_20mgkg</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40">
         <f>Avelumab_Original!A40</f>
         <v>168</v>
       </c>
       <c r="B40" s="2">
-        <f>Avelumab_Original!B40/($D$32*77*1000)*100</f>
+        <f>Avelumab_Original!B40/($J$32*77*1000)*100</f>
         <v>6.9368116883116874E-3</v>
       </c>
       <c r="C40" s="2">
-        <f>Avelumab_Original!C40/($D$32*77*1000)*100</f>
+        <f>Avelumab_Original!C40/($J$32*77*1000)*100</f>
         <v>3.2824610389610392E-3</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="2">
+        <f>Avelumab_Original!B40/150000</f>
+        <v>7.1217933333333333E-4</v>
+      </c>
+      <c r="E40" s="2">
+        <f>Avelumab_Original!C40/150000</f>
+        <v>3.3699933333333336E-4</v>
+      </c>
+      <c r="J40">
         <f>Avelumab_Original!D40</f>
         <v>0</v>
       </c>
-      <c r="E40" t="str">
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40" t="str">
         <f>Avelumab_Original!E40</f>
         <v>20_mgkg</v>
       </c>
-      <c r="F40" t="str">
+      <c r="M40" t="str">
         <f>Avelumab_Original!F40</f>
         <v>Avelumab_20mgkg</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41">
         <f>Avelumab_Original!A41</f>
         <v>336</v>
       </c>
       <c r="B41" s="2">
-        <f>Avelumab_Original!B41/($D$32*77*1000)*100</f>
+        <f>Avelumab_Original!B41/($J$32*77*1000)*100</f>
         <v>3.3108246753246751E-3</v>
       </c>
       <c r="C41" s="2">
-        <f>Avelumab_Original!C41/($D$32*77*1000)*100</f>
+        <f>Avelumab_Original!C41/($J$32*77*1000)*100</f>
         <v>2.2065649350649346E-3</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2">
+        <f>Avelumab_Original!B41/150000</f>
+        <v>3.3991133333333335E-4</v>
+      </c>
+      <c r="E41" s="2">
+        <f>Avelumab_Original!C41/150000</f>
+        <v>2.2654066666666665E-4</v>
+      </c>
+      <c r="J41">
         <f>Avelumab_Original!D41</f>
         <v>0</v>
       </c>
-      <c r="E41" t="str">
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41" t="str">
         <f>Avelumab_Original!E41</f>
         <v>20_mgkg</v>
       </c>
-      <c r="F41" t="str">
+      <c r="M41" t="str">
         <f>Avelumab_Original!F41</f>
         <v>Avelumab_20mgkg</v>
       </c>
@@ -1509,8 +1999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6421FB-83CE-C74C-9D5D-34BE1EEBC9DE}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1523,19 +2013,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1552,10 +2042,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1573,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
         <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1594,10 +2084,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
         <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1615,10 +2105,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
         <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1636,10 +2126,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
         <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1657,10 +2147,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
         <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1678,10 +2168,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
         <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1699,10 +2189,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
         <v>6</v>
-      </c>
-      <c r="F9" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1720,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
         <v>6</v>
-      </c>
-      <c r="F10" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1741,10 +2231,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
         <v>6</v>
-      </c>
-      <c r="F11" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1761,10 +2251,10 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
         <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1782,10 +2272,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
         <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1803,10 +2293,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
         <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1824,10 +2314,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
         <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1845,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
         <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1866,10 +2356,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
         <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1887,10 +2377,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
         <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1908,10 +2398,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
         <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1929,10 +2419,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
         <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1950,10 +2440,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
         <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1970,10 +2460,10 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
         <v>10</v>
-      </c>
-      <c r="F22" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1991,10 +2481,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
         <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -2012,10 +2502,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
         <v>10</v>
-      </c>
-      <c r="F24" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -2033,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
         <v>10</v>
-      </c>
-      <c r="F25" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -2054,10 +2544,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
         <v>10</v>
-      </c>
-      <c r="F26" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -2075,10 +2565,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
         <v>10</v>
-      </c>
-      <c r="F27" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -2096,10 +2586,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
         <v>10</v>
-      </c>
-      <c r="F28" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -2117,10 +2607,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
         <v>10</v>
-      </c>
-      <c r="F29" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -2138,10 +2628,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
         <v>10</v>
-      </c>
-      <c r="F30" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -2159,10 +2649,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
         <v>10</v>
-      </c>
-      <c r="F31" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -2179,10 +2669,10 @@
         <v>20</v>
       </c>
       <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
         <v>12</v>
-      </c>
-      <c r="F32" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -2200,10 +2690,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
         <v>12</v>
-      </c>
-      <c r="F33" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -2221,10 +2711,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
         <v>12</v>
-      </c>
-      <c r="F34" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -2242,10 +2732,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
         <v>12</v>
-      </c>
-      <c r="F35" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -2263,10 +2753,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
         <v>12</v>
-      </c>
-      <c r="F36" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -2284,10 +2774,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
         <v>12</v>
-      </c>
-      <c r="F37" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -2305,10 +2795,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
         <v>12</v>
-      </c>
-      <c r="F38" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -2326,10 +2816,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" t="s">
         <v>12</v>
-      </c>
-      <c r="F39" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -2347,10 +2837,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
         <v>12</v>
-      </c>
-      <c r="F40" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -2368,10 +2858,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" t="s">
         <v>12</v>
-      </c>
-      <c r="F41" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
